--- a/mapping-logic.xlsx
+++ b/mapping-logic.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karlt\thesis\datasets\juliet-top-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A846D2BF-A9DE-4768-8829-8A0770C778AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333F5212-DB09-43E3-9AD3-2740FC2021D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2424" yWindow="8688" windowWidth="16296" windowHeight="12480" activeTab="1" xr2:uid="{B35A2268-ABFC-461C-8486-56BF5F960D87}"/>
+    <workbookView xWindow="7080" yWindow="13368" windowWidth="17940" windowHeight="8676" xr2:uid="{B35A2268-ABFC-461C-8486-56BF5F960D87}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="selection" sheetId="1" r:id="rId1"/>
+    <sheet name="amount of files" sheetId="2" r:id="rId2"/>
+    <sheet name="mapping cwes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="103">
   <si>
     <t>Rank</t>
   </si>
@@ -274,13 +275,85 @@
   </si>
   <si>
     <t>CWE-606</t>
+  </si>
+  <si>
+    <t>CWE-24</t>
+  </si>
+  <si>
+    <t>CWE-25</t>
+  </si>
+  <si>
+    <t>CWE-26</t>
+  </si>
+  <si>
+    <t>CWE-27</t>
+  </si>
+  <si>
+    <t>CWE-28</t>
+  </si>
+  <si>
+    <t>CWE-29</t>
+  </si>
+  <si>
+    <t>CWE-30</t>
+  </si>
+  <si>
+    <t>CWE-31</t>
+  </si>
+  <si>
+    <t>CWE-32</t>
+  </si>
+  <si>
+    <t>CWE-33</t>
+  </si>
+  <si>
+    <t>CWE-34</t>
+  </si>
+  <si>
+    <t>CWE-35</t>
+  </si>
+  <si>
+    <t>CWE-37</t>
+  </si>
+  <si>
+    <t>CWE-38</t>
+  </si>
+  <si>
+    <t>CWE-39</t>
+  </si>
+  <si>
+    <t>CWE-40</t>
+  </si>
+  <si>
+    <t>CWE-82</t>
+  </si>
+  <si>
+    <t>CWE-564</t>
+  </si>
+  <si>
+    <t>CWE-943</t>
+  </si>
+  <si>
+    <t>CWE-1285</t>
+  </si>
+  <si>
+    <t>CWE-680</t>
+  </si>
+  <si>
+    <t>CWE-522</t>
+  </si>
+  <si>
+    <t>CWE-639</t>
+  </si>
+  <si>
+    <t>CWE-1284</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +395,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -337,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -373,12 +452,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -397,13 +485,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -741,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D3CD4F-6341-4ED4-8F88-B67FAB868C52}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -749,7 +838,7 @@
   <cols>
     <col min="1" max="1" width="8.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.21875" style="2" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" customWidth="1"/>
     <col min="6" max="6" width="14" style="2" customWidth="1"/>
@@ -774,7 +863,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -800,7 +889,7 @@
       <c r="E2" s="4">
         <v>70</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -826,7 +915,7 @@
       <c r="E3" s="4">
         <v>4</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -853,7 +942,7 @@
       <c r="E4" s="4">
         <v>6</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -880,7 +969,7 @@
       <c r="E5" s="4">
         <v>44</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -906,7 +995,7 @@
       <c r="E6" s="4">
         <v>23</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -932,7 +1021,7 @@
       <c r="E7" s="4">
         <v>35</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>-2</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -959,7 +1048,7 @@
       <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>-2</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -985,7 +1074,7 @@
       <c r="E9" s="4">
         <v>16</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1011,7 +1100,7 @@
       <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1037,7 +1126,7 @@
       <c r="E11" s="4">
         <v>5</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1063,7 +1152,7 @@
       <c r="E12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>5</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1089,7 +1178,7 @@
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>-1</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1115,7 +1204,7 @@
       <c r="E14" s="4">
         <v>10</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1141,7 +1230,7 @@
       <c r="E15" s="4">
         <v>4</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>-1</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -1168,7 +1257,7 @@
       <c r="E16" s="4">
         <v>14</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>-3</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1194,7 +1283,7 @@
       <c r="E17" s="4">
         <v>4</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1220,7 +1309,7 @@
       <c r="E18" s="4">
         <v>7</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>2</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1246,7 +1335,7 @@
       <c r="E19" s="4">
         <v>2</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>-3</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1272,7 +1361,7 @@
       <c r="E20" s="4">
         <v>16</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>2</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1298,7 +1387,7 @@
       <c r="E21" s="4">
         <v>8</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>-2</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1324,7 +1413,7 @@
       <c r="E22" s="4">
         <v>8</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -1350,7 +1439,7 @@
       <c r="E23" s="4">
         <v>5</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>7</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1376,7 +1465,7 @@
       <c r="E24" s="4">
         <v>6</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>2</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -1402,7 +1491,7 @@
       <c r="E25" s="4">
         <v>0</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>4</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -1428,7 +1517,7 @@
       <c r="E26" s="4">
         <v>0</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>-5</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -1474,7 +1563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A103CF31-BAFA-4093-9293-86F6683480AD}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1651,4 +1740,204 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A92AF8-B948-48E9-8062-47B0D37FA2EB}">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>